--- a/노인율.xlsx
+++ b/노인율.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\2022PublicDataServiceProject_NIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC232A8-796A-4247-BAB4-08707AADDBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5F5A8E-E2B6-4445-BCF3-B3D5A130BBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="1650" windowWidth="14750" windowHeight="11260" firstSheet="1" activeTab="2" xr2:uid="{B14E14DA-B39D-4D15-A86A-B90BB0C51C61}"/>
+    <workbookView xWindow="11410" yWindow="630" windowWidth="13240" windowHeight="11260" firstSheet="4" activeTab="7" xr2:uid="{B14E14DA-B39D-4D15-A86A-B90BB0C51C61}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021년_연령별 자살율" sheetId="7" r:id="rId1"/>
-    <sheet name="자살 생각 이유" sheetId="9" r:id="rId2"/>
+    <sheet name="2021년_연령별 자살율" sheetId="12" r:id="rId1"/>
+    <sheet name="자살 생각 이유" sheetId="13" r:id="rId2"/>
     <sheet name="정보이용 어려움의 원인" sheetId="10" r:id="rId3"/>
-    <sheet name="인구 추이" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
-    <sheet name="노인율" sheetId="2" r:id="rId6"/>
-    <sheet name="복지관_이용실태" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
+    <sheet name="디지털정보격차" sheetId="11" r:id="rId4"/>
+    <sheet name="인구 추이" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="노인율" sheetId="2" r:id="rId7"/>
+    <sheet name="복지관_이용실태" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>연도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,13 +137,6 @@
     <t> 연령미상</t>
   </si>
   <si>
-    <t> 80세 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-  </si>
-  <si>
     <t>건강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,18 +146,6 @@
   </si>
   <si>
     <t>외로움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부부, 자녀, 친구 갈등 및 단절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배우자, 가족, 건강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,12 +167,69 @@
     <t>인터넷 중심의 정보제공 서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>19세 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70대 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 국민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80대 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우자, 
+가족의 건강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족, 친구 간의 갈등 및 단절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족, 지인의 사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,14 +250,6 @@
       <color rgb="FF000000"/>
       <name val="Noto sans kr"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -314,17 +345,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,7 +397,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.13214563779527558"/>
           <c:y val="9.7225434493376936E-2"/>
-          <c:w val="0.82562796850393705"/>
+          <c:w val="0.82131900179144268"/>
           <c:h val="0.73395399432669217"/>
         </c:manualLayout>
       </c:layout>
@@ -389,78 +420,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2021년_연령별 자살율'!$B$1:$J$1</c:f>
+              <c:f>'2021년_연령별 자살율'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v> 0-9세</c:v>
+                  <c:v>10대</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 10-19세</c:v>
+                  <c:v>20대</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 20-29세</c:v>
+                  <c:v>30대</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 30-39세</c:v>
+                  <c:v>40대</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 40-49세</c:v>
+                  <c:v>50대</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 50-59세</c:v>
+                  <c:v>60대</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> 60-69세</c:v>
+                  <c:v>70대</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> 70-79세</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> 80세 이상</c:v>
+                  <c:v>80대 이상</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2021년_연령별 자살율'!$B$2:$J$2</c:f>
+              <c:f>'2021년_연령별 자살율'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>28.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>61.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1D3-469D-AEC9-77E46A4D414D}"/>
+              <c16:uniqueId val="{00000002-9DA7-46CC-B466-259FB2F8FA0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -505,8 +530,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ko-KR"/>
-                  <a:t>연도</a:t>
+                  <a:t>연</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>령대</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -587,7 +617,7 @@
         <c:axId val="1745135072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
+          <c:max val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -626,7 +656,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ko-KR" altLang="en-US"/>
-                  <a:t>구성비</a:t>
+                  <a:t>자살율</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ko-KR"/>
@@ -761,6 +791,845 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13214563779527558"/>
+          <c:y val="9.7225434493376936E-2"/>
+          <c:w val="0.82131900179144268"/>
+          <c:h val="0.68494348668244931"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'자살 생각 이유'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>건강</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>경제적 어려움</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>외로움</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>가족, 지인의 사망</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>가족, 친구 간의 갈등 및 단절</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>배우자, 
+가족의 건강</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>기타</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'자살 생각 이유'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A61-4181-8FE1-9E51F1B2B2C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1745155872"/>
+        <c:axId val="1745135072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1745155872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                    <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>이유</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                  <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1745135072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1745135072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                    <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>비율</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                  <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1745155872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+          <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13214563779527558"/>
+          <c:y val="9.7225434493376936E-2"/>
+          <c:w val="0.82131900179144268"/>
+          <c:h val="0.73395399432669217"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-92A7-429B-9A77-1C9D8C398D7D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>디지털정보격차!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>일반 국민</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19세 이하</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20대</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30대</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40대</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50대</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60대</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70대 이상</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>디지털정보격차!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92A7-429B-9A77-1C9D8C398D7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1745155872"/>
+        <c:axId val="1745135072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1745155872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                    <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR"/>
+                  <a:t>연도</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                  <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1745135072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1745135072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="130"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                    <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>수준</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                  <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1745155872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+          <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1178,7 +2047,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1623,7 +2492,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2209,6 +3078,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3719,6 +4668,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4226,22 +6181,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4610FBAE-5961-4041-BBA8-E5C47ACB87B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B2AB37-646A-44BE-AFFC-4FD68BC733D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4265,6 +6220,92 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCEC25B-7D02-4A5D-B265-BEB6EB384695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827AC2C5-2043-4F61-A92D-CCB130C90B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4307,7 +6348,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4350,7 +6391,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4689,81 +6730,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E4209B-CC95-496F-9A95-48F0FE58510F}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8EAF99-73B0-4319-9D54-2F2E8A74B23E}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.58203125" customWidth="1"/>
-    <col min="10" max="10" width="11.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.5" thickBot="1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>28</v>
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.5" thickBot="1">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>26</v>
+      <c r="B2">
+        <v>7.1</v>
+      </c>
+      <c r="C2">
+        <v>23.5</v>
+      </c>
+      <c r="D2">
+        <v>27.3</v>
+      </c>
+      <c r="E2">
+        <v>28.2</v>
+      </c>
+      <c r="F2">
+        <v>30.1</v>
+      </c>
+      <c r="G2">
+        <v>28.4</v>
+      </c>
+      <c r="H2">
+        <v>41.8</v>
+      </c>
+      <c r="I2">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="F11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC4A4ED-DEEB-4188-99C2-11C0AEF2D12C}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>23.7</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E2">
+        <v>13.8</v>
+      </c>
+      <c r="F2">
+        <v>13.1</v>
+      </c>
+      <c r="G2">
+        <v>7.6</v>
+      </c>
+      <c r="H2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83044BD-8926-406D-909F-3545AC5DE669}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>58.9</v>
+      </c>
+      <c r="C2">
+        <v>63.5</v>
+      </c>
+      <c r="D2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E1627F-D040-4D0D-AD3C-1F019784C881}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="3" max="3" width="11.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>108.2</v>
+      </c>
+      <c r="D2">
+        <v>125.4</v>
+      </c>
+      <c r="E2">
+        <v>122.8</v>
+      </c>
+      <c r="F2">
+        <v>112.3</v>
+      </c>
+      <c r="G2">
+        <v>97</v>
+      </c>
+      <c r="H2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="I2">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="G11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96588B37-A704-4291-8A11-C35A8C5DDD35}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2025</v>
+      </c>
+      <c r="F1">
+        <v>2030</v>
+      </c>
+      <c r="G1">
+        <v>2036</v>
+      </c>
+      <c r="H1">
+        <v>2040</v>
+      </c>
+      <c r="I1">
+        <v>2050</v>
+      </c>
+      <c r="J1">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>14.9</v>
+      </c>
+      <c r="C2">
+        <v>15.7</v>
+      </c>
+      <c r="D2">
+        <v>16.5</v>
+      </c>
+      <c r="E2">
+        <v>20.3</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>30.5</v>
+      </c>
+      <c r="H2">
+        <v>33.9</v>
+      </c>
+      <c r="I2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J2">
+        <v>43.9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4780,219 +7116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE1C16E-1C96-4554-ABD2-93162B4B5D84}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>23.7</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E2">
-        <v>13.8</v>
-      </c>
-      <c r="F2">
-        <v>13.1</v>
-      </c>
-      <c r="G2">
-        <v>7.6</v>
-      </c>
-      <c r="H2">
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83044BD-8926-406D-909F-3545AC5DE669}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="2" width="15.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>58.9</v>
-      </c>
-      <c r="C2">
-        <v>63.5</v>
-      </c>
-      <c r="D2">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96588B37-A704-4291-8A11-C35A8C5DDD35}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
-        <v>2020</v>
-      </c>
-      <c r="D1">
-        <v>2021</v>
-      </c>
-      <c r="E1">
-        <v>2025</v>
-      </c>
-      <c r="F1">
-        <v>2030</v>
-      </c>
-      <c r="G1">
-        <v>2036</v>
-      </c>
-      <c r="H1">
-        <v>2040</v>
-      </c>
-      <c r="I1">
-        <v>2050</v>
-      </c>
-      <c r="J1">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>14.9</v>
-      </c>
-      <c r="C2">
-        <v>15.7</v>
-      </c>
-      <c r="D2">
-        <v>16.5</v>
-      </c>
-      <c r="E2">
-        <v>20.3</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>30.5</v>
-      </c>
-      <c r="H2">
-        <v>33.9</v>
-      </c>
-      <c r="I2">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="J2">
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="F3" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="F11" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF1DD2D-1CFA-444A-A593-321DC2E2686E}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5106,77 +7230,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB87CBB-1F68-4E6E-8C13-3391431A9598}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2017</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
-      </c>
-      <c r="D1">
-        <v>2019</v>
-      </c>
-      <c r="E1">
-        <v>2020</v>
-      </c>
-      <c r="F1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>14.2</v>
-      </c>
-      <c r="C2">
-        <v>14.8</v>
-      </c>
-      <c r="D2">
-        <v>15.5</v>
-      </c>
-      <c r="E2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F2">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="F3" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="F11" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30CEE73-4439-4339-B0C4-BB7F5DBC8AF0}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5192,7 +7251,16 @@
         <v>2017</v>
       </c>
       <c r="C1">
+        <v>2018</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
         <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5200,10 +7268,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.3000000000000007</v>
+        <v>14.2</v>
       </c>
       <c r="C2">
-        <v>9.5</v>
+        <v>14.8</v>
+      </c>
+      <c r="D2">
+        <v>15.5</v>
+      </c>
+      <c r="E2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F2">
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5221,6 +7298,55 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30CEE73-4439-4339-B0C4-BB7F5DBC8AF0}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="F11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B833EBE-8E82-4D1B-829E-C774D11B0754}">
   <dimension ref="A2:R13"/>
   <sheetViews>
@@ -5533,5 +7659,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>